--- a/web/material/template/cashback_detail_template.xlsx
+++ b/web/material/template/cashback_detail_template.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunshine/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunshine/Documents/Itellij/Selling/web/material/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12440"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>代理商</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,19 +37,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>销售瓶数</t>
+  </si>
+  <si>
+    <t>代理商</t>
+  </si>
+  <si>
+    <t>返现月份</t>
+  </si>
+  <si>
+    <t>返现比例</t>
+  </si>
+  <si>
+    <t>返现金额</t>
+  </si>
+  <si>
+    <t>商品名</t>
+  </si>
+  <si>
     <t>返现来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返现金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返现月份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售瓶数</t>
   </si>
 </sst>
 </file>
@@ -95,7 +101,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -107,9 +113,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -391,56 +394,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="E3" s="1"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
@@ -489,30 +501,11 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
